--- a/backend/common/primary_data/黄大仙区升学数据.xlsx
+++ b/backend/common/primary_data/黄大仙区升学数据.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="208">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -769,9 +769,6 @@
     <t>順德聯誼總會鄭裕彤中學</t>
   </si>
   <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -785,6 +782,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>可立中</t>
     </r>
     <r>
@@ -862,6 +865,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>文理</t>
     </r>
     <r>
@@ -903,6 +912,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>九</t>
     </r>
     <r>
@@ -974,6 +989,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>梁文燕</t>
     </r>
     <r>
@@ -1014,10 +1035,13 @@
     </r>
   </si>
   <si>
-    <t>2022-2024</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>優</t>
     </r>
     <r>
@@ -1834,7 +1858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1848,9 +1872,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -2560,7 +2581,7 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
       <c r="E2" t="s">
         <v>108</v>
       </c>
@@ -2569,151 +2590,151 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
       <c r="C10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="C11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
       <c r="C12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
       <c r="C13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
       <c r="C14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
       <c r="C15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" ht="17.6" spans="3:4">
       <c r="C17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" ht="17.6" spans="3:4">
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" ht="17.6" spans="3:4">
       <c r="C19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" ht="17.6" spans="3:4">
       <c r="C20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" ht="17.6" spans="3:4">
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" ht="17.6" spans="3:4">
       <c r="C22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" ht="17.6" spans="3:4">
       <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" ht="17.6" spans="3:4">
       <c r="C24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" ht="17.6" spans="3:4">
       <c r="C25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" ht="17.6" spans="3:4">
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" ht="17.6" spans="3:4">
       <c r="C27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2900,7 +2921,7 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E2" t="s">
@@ -2908,7 +2929,7 @@
       </c>
     </row>
     <row r="3" ht="16" spans="1:6">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E3" t="s">
@@ -2916,152 +2937,152 @@
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:6">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:6">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:6">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:6">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:6">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:6">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" ht="15.2" spans="1:6">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:6">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:6">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" ht="15.2" spans="1:6">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:6">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" ht="15.2" spans="1:6">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" ht="15.2" spans="1:6">
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="15.2" spans="3:3">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" ht="15.2" spans="3:3">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" ht="15.2" spans="3:3">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" ht="15.2" spans="3:3">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" ht="15.2" spans="3:3">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="15.2" spans="3:3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" ht="15.2" spans="3:3">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="3:3">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15.2" spans="3:3">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" ht="15.2" spans="3:3">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" ht="15.2" spans="3:3">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" ht="15.2" spans="3:3">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="15.2" spans="3:3">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" ht="15.2" spans="3:3">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="15.2" spans="3:3">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" ht="15.2" spans="3:3">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" ht="15.2" spans="3:3">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4015,7 +4036,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4383,8 +4404,8 @@
   <sheetPr codeName="聖公會基德小學"/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -4416,8 +4437,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
+      <c r="B2" s="2">
+        <v>2023</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -4426,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2">
         <v>94</v>
@@ -4479,8 +4500,8 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>190</v>
+      <c r="C8" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D8" s="3">
         <v>8</v>
@@ -4524,8 +4545,8 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>191</v>
+      <c r="C13" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -4533,8 +4554,8 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>192</v>
+      <c r="C14" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -4606,7 +4627,7 @@
     <row r="22" ht="17.6" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -4678,7 +4699,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4687,7 +4708,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4696,7 +4717,7 @@
     <row r="32" ht="17.6" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4704,16 +4725,16 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>197</v>
+      <c r="C33" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="2:6">
-      <c r="B34" s="2" t="s">
-        <v>198</v>
+      <c r="B34" s="2">
+        <v>2024</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>127</v>
@@ -4727,8 +4748,8 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="4"/>
-      <c r="C35" s="6" t="s">
-        <v>199</v>
+      <c r="C35" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4746,7 +4767,7 @@
     <row r="37" ht="17.6" spans="2:6">
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -4799,8 +4820,8 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="4"/>
-      <c r="C43" s="5" t="s">
-        <v>190</v>
+      <c r="C43" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="D43" s="3">
         <v>13</v>
@@ -4971,7 +4992,7 @@
     <row r="62" ht="17.6" spans="2:4">
       <c r="B62" s="4"/>
       <c r="C62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -5045,7 +5066,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5411,7 +5432,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5499,7 +5520,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5533,7 +5554,7 @@
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5622,11 +5643,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5653,14 +5674,14 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -6679,7 +6700,7 @@
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
@@ -6687,7 +6708,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
@@ -6695,232 +6716,232 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:3">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:3">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:3">
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:3">
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:3">
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:3">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:3">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:3">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:3">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:3">
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:3">
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>107</v>
       </c>
     </row>

--- a/backend/common/primary_data/黄大仙区升学数据.xlsx
+++ b/backend/common/primary_data/黄大仙区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="12" activeTab="17"/>
+    <workbookView windowHeight="16080" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="獻主會溥仁小學" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="218">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -469,37 +469,255 @@
     </r>
   </si>
   <si>
-    <t>華仁書院（九龍）</t>
+    <r>
+      <t>可立中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嗇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>播道書院</t>
+  </si>
+  <si>
+    <r>
+      <t>匯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>德望學校</t>
+  </si>
+  <si>
+    <r>
+      <t>保良局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羅傑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承(一九八三)中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <t>荃灣官立中學</t>
+  </si>
+  <si>
+    <t>聖芳濟書院</t>
+  </si>
+  <si>
+    <t>五旬節林漢光中學</t>
+  </si>
+  <si>
+    <t>九龍真光中學</t>
+  </si>
+  <si>
+    <t>天主教郭得勝中學</t>
   </si>
   <si>
     <t>寶血會上智英文書院</t>
   </si>
   <si>
-    <t>天主教郭得勝中學</t>
-  </si>
-  <si>
-    <t>九龍真光中學</t>
-  </si>
-  <si>
-    <t>五旬節林漢光中學</t>
-  </si>
-  <si>
-    <t>聖芳濟書院</t>
-  </si>
-  <si>
-    <t>荃灣官立中學</t>
-  </si>
-  <si>
-    <t>保良局羅傑承（一九八三）中學</t>
-  </si>
-  <si>
-    <t>德望學校</t>
-  </si>
-  <si>
-    <t>匯基書院（東九龍）</t>
-  </si>
-  <si>
-    <t>播道書院</t>
+    <r>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院(九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>41%获派以英文为主要教学语言的中学</t>
@@ -580,6 +798,9 @@
     </r>
   </si>
   <si>
+    <t>華仁書院（九龍）</t>
+  </si>
+  <si>
     <t>聖傑靈女子中學</t>
   </si>
   <si>
@@ -757,9 +978,6 @@
     </r>
   </si>
   <si>
-    <t>華仁書院 (九龍)</t>
-  </si>
-  <si>
     <t>九龍文理書院</t>
   </si>
   <si>
@@ -1155,17 +1373,110 @@
   </si>
   <si>
     <t>浸信會呂明才中學</t>
+  </si>
+  <si>
+    <r>
+      <t>瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>諾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校(中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部)</t>
+    </r>
+  </si>
+  <si>
+    <t>中華基金中學</t>
+  </si>
+  <si>
+    <t>聖保祿中學</t>
+  </si>
+  <si>
+    <t>培僑中學</t>
+  </si>
+  <si>
+    <t>嘉諾撒書院</t>
+  </si>
+  <si>
+    <t>保祿六世書院</t>
+  </si>
+  <si>
+    <t>聖士提反書院</t>
+  </si>
+  <si>
+    <t>聖母玫瑰書院</t>
+  </si>
+  <si>
+    <t>天主教母佑會蕭明中學</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1858,12 +2169,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1886,8 +2206,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2440,13 +2760,13 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>2025</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -2454,71 +2774,71 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D10">
@@ -2543,7 +2863,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -2578,163 +2898,215 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="12">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="12">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" ht="17.6" spans="1:6">
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9"/>
+      <c r="D5" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="C11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="9"/>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:6">
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="17.6" spans="1:6">
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="3:4">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="3:4">
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="3:4">
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="3:4">
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="17.6" spans="3:4">
+      <c r="C21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="17.6" spans="3:4">
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="17.6" spans="3:4">
+      <c r="C23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="17.6" spans="3:4">
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="17.6" spans="3:4">
+      <c r="C25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="17.6" spans="3:4">
+      <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="17.6" spans="1:6">
-      <c r="C13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="17.6" spans="1:6">
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="17.6" spans="1:6">
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="17.6" spans="1:6">
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" ht="17.6" spans="3:4">
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" ht="17.6" spans="3:4">
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" ht="17.6" spans="3:4">
-      <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" ht="17.6" spans="3:4">
-      <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="17.6" spans="3:4">
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" ht="17.6" spans="3:4">
-      <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="17.6" spans="3:4">
-      <c r="C23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" ht="17.6" spans="3:4">
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" ht="17.6" spans="3:4">
-      <c r="C25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="17.6" spans="3:4">
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="17.6" spans="3:4">
-      <c r="C27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="9"/>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2783,86 +3155,86 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2921,168 +3293,168 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
+      <c r="C2" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:6">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:6">
-      <c r="C4" s="7" t="s">
-        <v>127</v>
+      <c r="C4" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:6">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" ht="15.2" spans="1:6">
-      <c r="C6" s="7" t="s">
-        <v>110</v>
+      <c r="C6" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:6">
-      <c r="C7" s="7" t="s">
-        <v>128</v>
+      <c r="C7" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:6">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:6">
-      <c r="C9" s="7" t="s">
-        <v>129</v>
+      <c r="C9" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="10" ht="15.2" spans="1:6">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:6">
-      <c r="C11" s="7" t="s">
-        <v>130</v>
+      <c r="C11" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:6">
-      <c r="C12" s="7" t="s">
-        <v>121</v>
+      <c r="C12" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="15.2" spans="1:6">
-      <c r="C13" s="7" t="s">
-        <v>112</v>
+      <c r="C13" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:6">
-      <c r="C14" s="7" t="s">
-        <v>131</v>
+      <c r="C14" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="15.2" spans="1:6">
-      <c r="C15" s="7" t="s">
-        <v>132</v>
+      <c r="C15" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" ht="15.2" spans="1:6">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="15.2" spans="3:3">
-      <c r="C17" s="7" t="s">
-        <v>133</v>
+      <c r="C17" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" ht="15.2" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" ht="15.2" spans="3:3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" ht="15.2" spans="3:3">
-      <c r="C20" s="7" t="s">
-        <v>134</v>
+      <c r="C20" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" ht="15.2" spans="3:3">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="15.2" spans="3:3">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" ht="15.2" spans="3:3">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="3:3">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" ht="15.2" spans="3:3">
-      <c r="C25" s="8" t="s">
-        <v>135</v>
+      <c r="C25" s="11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" ht="15.2" spans="3:3">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" ht="15.2" spans="3:3">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" ht="15.2" spans="3:3">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" ht="15.2" spans="3:3">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" ht="15.2" spans="3:3">
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="15.2" spans="3:3">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" ht="15.2" spans="3:3">
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" ht="15.2" spans="3:3">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3136,175 +3508,175 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="17.6" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" ht="17.6" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" ht="17.6" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" ht="17.6" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" ht="17.6" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="17.6" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="17.6" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
-        <v>139</v>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3357,224 +3729,224 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="17.6" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" ht="17.6" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" ht="17.6" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" ht="17.6" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" ht="17.6" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="17.6" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="17.6" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" ht="17.6" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" ht="17.6" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" ht="17.6" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" ht="17.6" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" ht="17.6" spans="2:4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" ht="17.6" spans="2:4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" ht="17.6" spans="2:4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
-        <v>152</v>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3627,345 +3999,345 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="17.6" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" ht="17.6" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" ht="17.6" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" ht="17.6" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" ht="17.6" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="17.6" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="17.6" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" ht="17.6" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" ht="17.6" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" ht="17.6" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" ht="17.6" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" ht="17.6" spans="2:4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" ht="17.6" spans="2:4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" ht="17.6" spans="2:4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" ht="17.6" spans="2:4">
-      <c r="B33" s="4"/>
-      <c r="C33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" ht="17.6" spans="2:4">
-      <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" ht="17.6" spans="2:4">
-      <c r="B35" s="4"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" ht="17.6" spans="2:4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" ht="17.6" spans="2:4">
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" ht="17.6" spans="2:4">
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" ht="17.6" spans="2:4">
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" ht="17.6" spans="2:4">
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" ht="17.6" spans="2:4">
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" ht="17.6" spans="2:4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" ht="17.6" spans="2:4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" ht="17.6" spans="2:4">
-      <c r="B44" s="4"/>
-      <c r="C44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" ht="17.6" spans="2:4">
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" ht="17.6" spans="2:4">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" ht="17.6" spans="2:4">
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" ht="17.6" spans="2:4">
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" ht="17.6" spans="2:3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4019,121 +4391,121 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>176</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="17.6" spans="2:3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4155,7 +4527,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -4187,205 +4559,205 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="B2" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" ht="17.6" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" ht="17.6" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" ht="17.6" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" ht="17.6" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" ht="17.6" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="17.6" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="17.6" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" ht="17.6" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" ht="17.6" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" ht="17.6" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" ht="17.6" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4404,7 +4776,7 @@
   <sheetPr codeName="聖公會基德小學"/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="F34" sqref="F34:F63"/>
     </sheetView>
   </sheetViews>
@@ -4437,309 +4809,309 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>2023</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="23" ht="17.6" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="17.6" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="17.6" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="26" ht="17.6" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="17.6" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="2:4">
-      <c r="B30" s="4"/>
-      <c r="C30" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" ht="17.6" spans="2:4">
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" ht="17.6" spans="2:4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="4"/>
-      <c r="C33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="17.6" spans="2:6">
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>2024</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="F34">
@@ -4747,263 +5119,263 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="17.6" spans="2:6">
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="17.6" spans="2:6">
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="17.6" spans="2:6">
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="17.6" spans="2:6">
-      <c r="B39" s="4"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="40" ht="17.6" spans="2:6">
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="41" ht="17.6" spans="2:6">
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="42" ht="17.6" spans="2:6">
-      <c r="B42" s="4"/>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="4"/>
-      <c r="C43" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="44" ht="17.6" spans="2:6">
-      <c r="B44" s="4"/>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="45" ht="17.6" spans="2:6">
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="46" ht="17.6" spans="2:6">
-      <c r="B46" s="4"/>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="17.6" spans="2:6">
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="17.6" spans="2:6">
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="49" ht="17.6" spans="2:4">
-      <c r="B49" s="4"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="17.6" spans="2:4">
-      <c r="B50" s="4"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="51" ht="17.6" spans="2:4">
-      <c r="B51" s="4"/>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="52" ht="17.6" spans="2:4">
-      <c r="B52" s="4"/>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="53" ht="17.6" spans="2:4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="54" ht="17.6" spans="2:4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="17.6" spans="2:4">
-      <c r="B55" s="4"/>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="56" ht="17.6" spans="2:4">
-      <c r="B56" s="4"/>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="57" ht="17.6" spans="2:4">
-      <c r="B57" s="4"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="58" ht="17.6" spans="2:4">
-      <c r="B58" s="4"/>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="59" ht="17.6" spans="2:4">
-      <c r="B59" s="4"/>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="60" ht="17.6" spans="2:4">
-      <c r="B60" s="4"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="7"/>
+      <c r="C60" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="61" ht="17.6" spans="2:4">
-      <c r="B61" s="4"/>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="7"/>
+      <c r="C61" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="17.6" spans="2:4">
-      <c r="B62" s="4"/>
-      <c r="C62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="17.6" spans="2:4">
-      <c r="B63" s="4"/>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5058,83 +5430,83 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5188,191 +5560,191 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="2:4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5424,41 +5796,41 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5512,83 +5884,83 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5639,111 +6011,111 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="17.6" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" ht="17.6" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="17.6" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" ht="17.6" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="17.6" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="17.6" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5762,13 +6134,16 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="聖母小學"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
@@ -5790,12 +6165,210 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.2" spans="1:6">
+    <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="B17:B33"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5855,135 +6428,135 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>2025</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6127,146 +6700,146 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6321,132 +6894,132 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="2:4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6501,37 +7074,37 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
       <c r="E2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="D9" s="3"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6581,10 +7154,10 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -6592,56 +7165,56 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6700,7 +7273,7 @@
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
@@ -6708,7 +7281,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
@@ -6716,232 +7289,232 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:3">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:3">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:3">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:3">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:3">
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:3">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:3">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:3">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:3">
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:3">
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:3">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:3">
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:3">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:3">
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="13" t="s">
         <v>107</v>
       </c>
     </row>
